--- a/StrumentiMusicaliApp/TemplateExcel/ProtoFatt.xlsx
+++ b/StrumentiMusicaliApp/TemplateExcel/ProtoFatt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fastcode13042017\Source\Repos\StrumentiMusicali\StrumentiMusicaliApp\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A02A26-63C8-4717-838E-127841FCBD6C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1871BA5F-CA9E-4B08-BDED-C0DD4A03713D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{13DDDE2F-AD82-4695-B4FA-5F98667EA936}"/>
   </bookViews>
@@ -47,6 +47,7 @@
     <definedName name="PesoKg">Sheet1!$D$37</definedName>
     <definedName name="Porto">Sheet1!$B$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$43</definedName>
+    <definedName name="QuadroDDTDaCancellare">Sheet1!$B$38:$H$41</definedName>
     <definedName name="Righe">Sheet1!$B$15:$H$30</definedName>
     <definedName name="RigheIva">Sheet1!$B$38:$E$41</definedName>
     <definedName name="TipoDocumento">Sheet1!$B$14</definedName>
@@ -769,113 +770,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,7 +1263,7 @@
   <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B38" sqref="B38:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,10 +1381,10 @@
       <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
@@ -1534,92 +1535,92 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="59" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="59" t="s">
+      <c r="E31" s="51"/>
+      <c r="F31" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="61"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="72"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="66" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="49" t="s">
+      <c r="E34" s="61"/>
+      <c r="F34" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="50"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="42"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="37" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="42"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="73"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="24"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="44"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="28" t="s">
@@ -1628,47 +1629,53 @@
       <c r="C38" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="65"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="69"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B32:C35"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H35:H37"/>
     <mergeCell ref="G38:H41"/>
@@ -1685,12 +1692,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B32:C35"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>

--- a/StrumentiMusicaliApp/TemplateExcel/ProtoFatt.xlsx
+++ b/StrumentiMusicaliApp/TemplateExcel/ProtoFatt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fastcode13042017\Source\Repos\StrumentiMusicali\StrumentiMusicaliApp\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1871BA5F-CA9E-4B08-BDED-C0DD4A03713D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20418486-937E-449C-B4B5-4389B84F8888}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{13DDDE2F-AD82-4695-B4FA-5F98667EA936}"/>
   </bookViews>
@@ -36,6 +36,7 @@
     <definedName name="NegozioCF">Sheet1!$E$6</definedName>
     <definedName name="NegozioEmail">Sheet1!$E$7</definedName>
     <definedName name="NegozioIndirizzo">Sheet1!$E$3</definedName>
+    <definedName name="NegozioPEC">Sheet1!$E$8</definedName>
     <definedName name="NegozioPIVA">Sheet1!$E$5</definedName>
     <definedName name="NegozioRagSoc">Sheet1!$E$2</definedName>
     <definedName name="NegozioRagSociale">Sheet1!$E$2</definedName>
@@ -227,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -305,66 +306,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -377,10 +318,351 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color theme="8" tint="-0.249977111117893"/>
@@ -388,110 +670,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="8" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -500,190 +702,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -693,19 +716,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -727,26 +743,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -755,40 +771,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -797,56 +846,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,30 +888,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1262,8 +1297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:H41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,49 +1313,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="8"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="8"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="8"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="76"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G9" t="s">
@@ -1339,10 +1380,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
@@ -1361,16 +1402,17 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="67" t="s">
         <v>11</v>
       </c>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
@@ -1378,304 +1420,300 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="15"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="15"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="15"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="15"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="15"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="15"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="15"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="15"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="49" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="49" t="s">
+      <c r="E31" s="55"/>
+      <c r="F31" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="55"/>
+      <c r="H31" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="59"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="60" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="52" t="s">
+      <c r="E34" s="62"/>
+      <c r="F34" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="23" t="s">
+      <c r="G34" s="44"/>
+      <c r="H34" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="41"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="37" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="41"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="42"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="21" t="s">
+      <c r="E38" s="59"/>
+      <c r="F38" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="26" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B32:C35"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
+  <mergeCells count="24">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H35:H37"/>
     <mergeCell ref="G38:H41"/>
@@ -1692,6 +1730,12 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B32:C35"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>

--- a/StrumentiMusicaliApp/TemplateExcel/ProtoFatt.xlsx
+++ b/StrumentiMusicaliApp/TemplateExcel/ProtoFatt.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fastcode13042017\Source\Repos\StrumentiMusicali\StrumentiMusicaliApp\TemplateExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20418486-937E-449C-B4B5-4389B84F8888}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{13DDDE2F-AD82-4695-B4FA-5F98667EA936}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$43</definedName>
     <definedName name="AspettoBeni">Sheet1!$D$35</definedName>
     <definedName name="CausaleTrasporto">Sheet1!$F$35</definedName>
     <definedName name="ClienteCap">Sheet1!$F$12</definedName>
@@ -47,7 +42,6 @@
     <definedName name="Pagamento">Sheet1!$D$14</definedName>
     <definedName name="PesoKg">Sheet1!$D$37</definedName>
     <definedName name="Porto">Sheet1!$B$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$43</definedName>
     <definedName name="QuadroDDTDaCancellare">Sheet1!$B$38:$H$41</definedName>
     <definedName name="Righe">Sheet1!$B$15:$H$30</definedName>
     <definedName name="RigheIva">Sheet1!$B$38:$E$41</definedName>
@@ -57,8 +51,8 @@
     <definedName name="Vettore">Sheet1!$D$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -182,12 +176,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="d/m/yy\ h\.mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy\ h\.mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,7 +708,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -730,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -753,9 +747,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,117 +781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
@@ -905,18 +788,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -936,22 +930,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ED4C36-FD68-4A97-AB37-050253025F75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41ED4C36-FD68-4A97-AB37-050253025F75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -960,22 +954,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="628650" y="219075"/>
-          <a:ext cx="2133600" cy="685800"/>
+          <a:off x="123825" y="190501"/>
+          <a:ext cx="2143125" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -983,7 +970,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1040,7 +1027,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1092,7 +1079,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1286,22 +1273,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53F7BAB-5A73-4066-941B-2DFEA696CFF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1312,49 +1299,49 @@
     <col min="9" max="9" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="72"/>
+    <row r="2" spans="2:8">
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="E3" s="35"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="73"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="72"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="E4" s="35"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="73"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="74"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="73"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="72"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="E6" s="35"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="75"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="E7" s="37"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="76"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1379,7 +1366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="1">
         <v>29536</v>
       </c>
@@ -1401,7 +1388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
@@ -1409,24 +1396,24 @@
       <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="67"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1">
       <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1440,7 +1427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1449,7 +1436,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="2"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1458,7 +1445,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="B18" s="2"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1467,7 +1454,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19" s="2"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1476,7 +1463,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="2"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1485,7 +1472,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="2"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1494,7 +1481,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="2"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1503,7 +1490,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="2"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1512,7 +1499,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="2"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1521,7 +1508,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="2"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1530,7 +1517,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="2"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1539,7 +1526,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1548,7 +1535,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="2"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1557,7 +1544,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1566,7 +1553,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="B30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1575,7 +1562,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="3"/>
       <c r="B31" s="53" t="s">
         <v>32</v>
@@ -1593,149 +1580,149 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="3"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="62"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="60"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="63"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="61" t="s">
+    <row r="34" spans="1:9">
+      <c r="B34" s="62"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="43" t="s">
+      <c r="E34" s="65"/>
+      <c r="F34" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="44"/>
+      <c r="G34" s="57"/>
       <c r="H34" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B35" s="62"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="36"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="31"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="B38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="59"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="47"/>
       <c r="H38" s="48"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
       <c r="F39" s="18"/>
       <c r="G39" s="49"/>
       <c r="H39" s="50"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="B40" s="26"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G40" s="49"/>
       <c r="H40" s="50"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
       <c r="F41" s="20"/>
       <c r="G41" s="51"/>
       <c r="H41" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B32:C35"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H35:H37"/>
     <mergeCell ref="G38:H41"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F32:G33"/>
     <mergeCell ref="H32:H33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B32:C35"/>
-    <mergeCell ref="D32:E33"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
